--- a/biology/Mycologie/Retiboletus/Retiboletus.xlsx
+++ b/biology/Mycologie/Retiboletus/Retiboletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Retiboletus est un genre de champignons de la famille des Boletaceae dont la particularité est un goût amer dû à la présence de métabolites secondaires particulier : les rétipolides.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Retiboletus Binder &amp; Bresinsky 2002[1][réf. incomplète].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retiboletus Binder &amp; Bresinsky 2002[réf. incomplète].
 Récemment[Quand ?] reconnu commedistinct du genre Boletus[réf. nécessaire]. 
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sporophore produit un groupe unique de composés buténolides appelé les rétipolides[2][réf. incomplète] qui sont responsables du goût amer et la couleur jaune intense de la chair. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sporophore produit un groupe unique de composés buténolides appelé les rétipolides[réf. incomplète] qui sont responsables du goût amer et la couleur jaune intense de la chair. 
 Stipes ostensiblement réticulés.[réf. nécessaire] 
 Sporée brun olive. Les spores sont fusiformes, lisses.[réf. nécessaire]
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones tempérées du Nouveau Monde,  Japon, régions néotropiques montagnardes. Costa Rica et Belize
 Mycorhizes avec les arbres de la famille des Fagaceae.
@@ -608,23 +626,25 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 novembre 2013)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 novembre 2013) :
 Retiboletus flavoniger
 Retiboletus griseus
 Retiboletus nigerrimus
 Retiboletus ornatipes
 Retiboletus retipes
 Retiboletus vinaceipes
-Selon Index Fungorum                                      (19 novembre 2013)[4] :
+Selon Index Fungorum                                      (19 novembre 2013) :
 Retiboletus flavoniger (Halling, G.M. Muell. &amp; L.D. Gómez) Manfr. Binder &amp; Halling 2002
 Retiboletus griseus (Frost) Manfr. Binder &amp; Bresinsky 2002
 Retiboletus nigerrimus (R. Heim) Manfr. Binder &amp; Bresinsky 2002
 Retiboletus ornatipes (Peck) Manfr. Binder &amp; Bresinsky 2002
 Retiboletus retipes (Berk. &amp; M.A. Curtis) Manfr. Binder &amp; Bresinsky 2002
 Retiboletus vinaceipes B. Ortiz, Lodge &amp; T.J. Baroni 2007
-Selon NCBI  (19 novembre 2013)[5] :
+Selon NCBI  (19 novembre 2013) :
 Retiboletus griseus
 Retiboletus nigerrimus
 Retiboletus ornatipes</t>
